--- a/assets/docs/Tableau_de_synthese-Nicolas_VOLLE-Epreuve_E4-BTS_SIO_2022.xlsx
+++ b/assets/docs/Tableau_de_synthese-Nicolas_VOLLE-Epreuve_E4-BTS_SIO_2022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -131,6 +131,12 @@
     <t>Conception et développement du site internet troc.fr avec la technologie PHP-MySQL et HTML-CSS en utilisant le modèle MVC</t>
   </si>
   <si>
+    <t>Conception et développement de l'application mobile MySNCF avec la technologie Java</t>
+  </si>
+  <si>
+    <t>Conception et développement d'un portefolio avec le framework Bootstrap et les technologies HTML-CSS-Javascript</t>
+  </si>
+  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
@@ -159,11 +165,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -218,8 +225,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +243,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -454,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -524,6 +543,9 @@
     <xf borderId="17" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="18" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,6 +558,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,89 +928,89 @@
       <c r="G10" s="23"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" ht="39.75" customHeight="1">
       <c r="A11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" ht="39.75" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" ht="39.75" customHeight="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" ht="39.75" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="27" t="s">
+    <row r="15" ht="39.75" customHeight="1">
+      <c r="A15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="28"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" ht="39.75" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" ht="39.75" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="26"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" ht="39.75" customHeight="1">
       <c r="A18" s="20" t="s">
@@ -993,44 +1018,48 @@
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="24"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" ht="39.75" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" ht="39.75" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="5"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -10809,12 +10838,32 @@
       <c r="G999" s="5"/>
       <c r="H999" s="5"/>
     </row>
+    <row r="1000" ht="12.75" customHeight="1">
+      <c r="A1000" s="5"/>
+      <c r="B1000" s="5"/>
+      <c r="C1000" s="5"/>
+      <c r="D1000" s="5"/>
+      <c r="E1000" s="5"/>
+      <c r="F1000" s="5"/>
+      <c r="G1000" s="5"/>
+      <c r="H1000" s="5"/>
+    </row>
+    <row r="1001" ht="12.75" customHeight="1">
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="5"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="5"/>
+      <c r="F1001" s="5"/>
+      <c r="G1001" s="5"/>
+      <c r="H1001" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A17:H17"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A2:H2"/>
